--- a/InputFiles/Example2.xlsx
+++ b/InputFiles/Example2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAD67E9-48BF-4F8F-8B52-801C6A0E8B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FE0A52-9B20-4B07-AB0B-7B48C2E1ABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" activeTab="1" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="12960" tabRatio="800" activeTab="1" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
   </bookViews>
   <sheets>
     <sheet name="Seismic_Defination" sheetId="2" r:id="rId1"/>
@@ -1025,7 +1025,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{602E9B9C-B5B2-4F96-901C-29FA9BDA59B9}" name="Table6" displayName="Table6" ref="A4:G15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{602E9B9C-B5B2-4F96-901C-29FA9BDA59B9}" name="Table6" displayName="Table6" ref="A1:G12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{97735D9C-2B1E-4231-A643-C8F0B498AADF}" name="Index" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{48FA74AD-B827-4197-87EF-C0345B5F4062}" name="Dead_Load" dataDxfId="5"/>
@@ -1406,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BB20E1-EA8B-4807-A7B5-EFF219D7F2A7}">
-  <dimension ref="A4:G15"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,44 +1422,113 @@
     <col min="7" max="7" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="1" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
         <v>1</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
@@ -1470,22 +1539,22 @@
     </row>
     <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
       </c>
       <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
         <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
@@ -1493,7 +1562,7 @@
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
@@ -1502,33 +1571,33 @@
         <v>0</v>
       </c>
       <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
         <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
@@ -1539,22 +1608,22 @@
     </row>
     <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C9" s="8">
         <v>0</v>
       </c>
       <c r="D9" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1562,10 +1631,10 @@
     </row>
     <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C10" s="8">
         <v>0</v>
@@ -1574,127 +1643,58 @@
         <v>0</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
       </c>
       <c r="G10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8">
         <v>1.5</v>
       </c>
       <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
         <v>1.5</v>
       </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
         <v>0.9</v>
       </c>
     </row>

--- a/InputFiles/Example2.xlsx
+++ b/InputFiles/Example2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FE0A52-9B20-4B07-AB0B-7B48C2E1ABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B634C57B-238C-4163-A111-0000474906ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="12960" tabRatio="800" activeTab="1" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
+    <workbookView xWindow="0" yWindow="570" windowWidth="15360" windowHeight="10530" tabRatio="800" activeTab="1" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
   </bookViews>
   <sheets>
     <sheet name="Seismic_Defination" sheetId="2" r:id="rId1"/>
@@ -1025,7 +1025,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{602E9B9C-B5B2-4F96-901C-29FA9BDA59B9}" name="Table6" displayName="Table6" ref="A1:G12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{602E9B9C-B5B2-4F96-901C-29FA9BDA59B9}" name="Table6" displayName="Table6" ref="A1:G10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{97735D9C-2B1E-4231-A643-C8F0B498AADF}" name="Index" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{48FA74AD-B827-4197-87EF-C0345B5F4062}" name="Dead_Load" dataDxfId="5"/>
@@ -1406,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BB20E1-EA8B-4807-A7B5-EFF219D7F2A7}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
         <v>1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
         <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
         <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
         <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -1565,13 +1565,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
       </c>
       <c r="D7" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -1591,13 +1591,13 @@
         <v>1.5</v>
       </c>
       <c r="C8" s="8">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
         <v>0.9</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1633,68 +1633,22 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>1.5</v>
       </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
         <v>0.9</v>
       </c>
     </row>

--- a/InputFiles/Example2.xlsx
+++ b/InputFiles/Example2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B634C57B-238C-4163-A111-0000474906ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F495EBF-D54A-4BDD-9031-432A250BFFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="570" windowWidth="15360" windowHeight="10530" tabRatio="800" activeTab="1" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" activeTab="1" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
   </bookViews>
   <sheets>
     <sheet name="Seismic_Defination" sheetId="2" r:id="rId1"/>
@@ -1409,7 +1409,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputFiles/Example2.xlsx
+++ b/InputFiles/Example2.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\strucpy\Examples\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0A5261-3DFE-451E-B9F3-1270FF4952D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D08644-A4A6-4B9E-BC03-077B4EAE5819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="657" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="657" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="2" r:id="rId1"/>
     <sheet name="members" sheetId="1" r:id="rId2"/>
-    <sheet name="slab" sheetId="3" r:id="rId3"/>
-    <sheet name="forcevec" sheetId="4" r:id="rId4"/>
-    <sheet name="boundary" sheetId="5" r:id="rId5"/>
-    <sheet name="load_combinations" sheetId="6" r:id="rId6"/>
-    <sheet name="point_loads" sheetId="7" r:id="rId7"/>
+    <sheet name="boundary" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Node 1</t>
   </si>
@@ -51,24 +47,6 @@
     <t>z</t>
   </si>
   <si>
-    <t>Fx</t>
-  </si>
-  <si>
-    <t>Fy</t>
-  </si>
-  <si>
-    <t>Fz</t>
-  </si>
-  <si>
-    <t>Mx</t>
-  </si>
-  <si>
-    <t>My</t>
-  </si>
-  <si>
-    <t>Mz</t>
-  </si>
-  <si>
     <t>thetax</t>
   </si>
   <si>
@@ -93,59 +71,14 @@
     <t>d</t>
   </si>
   <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Dead_Load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Live_Load </t>
-  </si>
-  <si>
-    <t>Earthquake_Load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node1 </t>
-  </si>
-  <si>
-    <t>Node2</t>
-  </si>
-  <si>
-    <t>Node3</t>
-  </si>
-  <si>
-    <t>Node4</t>
-  </si>
-  <si>
-    <t>Thickness(mm)</t>
-  </si>
-  <si>
-    <t>FF(N/m2)</t>
-  </si>
-  <si>
-    <t>LL(N/m2)</t>
-  </si>
-  <si>
-    <t>Waterproofing(N/m2)</t>
-  </si>
-  <si>
     <t>un</t>
-  </si>
-  <si>
-    <t>Distance (m)</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>Load</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -167,13 +100,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,16 +156,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,19 +542,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -674,61 +590,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,44 +604,6 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -785,13 +613,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -831,349 +659,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AJ38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="M15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="N16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="R16" s="8"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="M19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="R20" s="8"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="S21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="X22" s="8"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="S25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="W25" s="8"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="X26" s="8"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Y27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Z28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AD28" s="8"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Y31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AC31" s="8"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AD32" s="8"/>
-    </row>
-    <row r="33" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AE33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-    </row>
-    <row r="34" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AF34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AJ34" s="8"/>
-    </row>
-    <row r="35" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-    </row>
-    <row r="36" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-    </row>
-    <row r="37" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AE37" s="8"/>
-      <c r="AG37" s="8"/>
-      <c r="AI37" s="8"/>
-    </row>
-    <row r="38" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-      <c r="AJ38" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>-100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>-300</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
